--- a/CheckLis.xlsx
+++ b/CheckLis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="148">
   <si>
     <t>#Tab</t>
   </si>
@@ -322,9 +322,6 @@
     <t>Administración del proyecto</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Evidencias que demuestren el trabajo en equipo</t>
   </si>
   <si>
@@ -436,18 +433,121 @@
     <t>Godínez Trueba Arturo Tonatiuh</t>
   </si>
   <si>
-    <t>29/05/2023</t>
+    <t>[Connection to 172.31.233.199 closed by foreign host]</t>
+  </si>
+  <si>
+    <t>Generar las claves antes de realizar la conexión SSH - MS5(config)#crypto key generate rsa</t>
+  </si>
+  <si>
+    <t>% Connection timed out; remote host not responding</t>
+  </si>
+  <si>
+    <t>30/05/2023</t>
+  </si>
+  <si>
+    <t>Organización de proyecto</t>
+  </si>
+  <si>
+    <t>Dividir algunas tareas que implicaban protocolos en ambas mitades</t>
+  </si>
+  <si>
+    <t>Dado el tiempo y la serie de cosas a implementar, en este proyecto la organización fue bastante importante para poder realizarlo en tiempo y forma. Fue necesario seguir una planeación correcta que permitiera acabar de manera satisfactoria.</t>
+  </si>
+  <si>
+    <t>Enrutamiento entre VLAns</t>
+  </si>
+  <si>
+    <t>Protocolo HSRP</t>
+  </si>
+  <si>
+    <t>Conectividad entre extremos</t>
+  </si>
+  <si>
+    <t>Habilitar y probar servicios</t>
+  </si>
+  <si>
+    <t>Probar el cambio de estado activo a standby y viceversa.</t>
+  </si>
+  <si>
+    <t>Usar una dirección IP virtual que ya pertenecía al rango de IPs asignables.</t>
+  </si>
+  <si>
+    <t>Con dos routers, es posible configurar este protocolo simplemente siguiendo unos cuantos comandos. Al final, hay que comprobar si el router standby cambia de un estado a otro en caso de ser necesario.</t>
+  </si>
+  <si>
+    <t>Verificar el paso de paquetes usando el modo simulación.</t>
+  </si>
+  <si>
+    <t>Verificar direccionamiento y rutas estáticas configuradas.</t>
+  </si>
+  <si>
+    <t>No asegurarse de que la asignación de direcciones fue la correcta.</t>
+  </si>
+  <si>
+    <t>La mayoría de las veces el problema era por la falta de alguna ruta estática, por lo era más fácil saber dónde estaba el problema, según la parte en donde se quedara el paquete estancado.</t>
+  </si>
+  <si>
+    <t>Entrar a sitio web o probar servicios de otras maneras.</t>
+  </si>
+  <si>
+    <t>No asegurarse de que los serivicios funcionen donde era necesario</t>
+  </si>
+  <si>
+    <t>Verificar que los dispositivos pudieran usar los servicios.</t>
+  </si>
+  <si>
+    <t>Analizar y planear tiempos para hacer actividades del caso.</t>
+  </si>
+  <si>
+    <t>Llevar un registro con evidencias de las actividades realizadas.</t>
+  </si>
+  <si>
+    <t>Usar direcciones IP consecutivas a la hora de ser asignadas para dispositivos intermedios.</t>
+  </si>
+  <si>
+    <t>Realizar subneteo de manera correcta y asignar direcciones IP en subinterfaces.</t>
+  </si>
+  <si>
+    <t>No realizar dibujo con direcciones IP a asginar.</t>
+  </si>
+  <si>
+    <t>Aquí fue importante definir correctamente el número de hosts para cada VLAN, las direcciones IP a asignar y probar conectividad para asegurarse de que funciona correctamente.</t>
+  </si>
+  <si>
+    <t>Definir y configurar routers usando una IP virtual proveniente del pool de direcciones IP.</t>
+  </si>
+  <si>
+    <t>La mayoría de servicios no implicaban grandes cambios o configuraciones. Aún así es importante entender y comprobar su funcionamiento en los dispositivos, de modo que estos puedan aprovechar sus servicios.</t>
+  </si>
+  <si>
+    <t>Mensajes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Videollamadas y videos: </t>
+  </si>
+  <si>
+    <t>Repositorio de Github:</t>
+  </si>
+  <si>
+    <t>https://github.com/zandock/studyCase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -606,6 +706,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -669,7 +785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -861,223 +977,210 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1088,10 +1191,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1100,37 +1203,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1414,7 +1545,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4958108" y="2013916"/>
+          <a:off x="4958896" y="2005239"/>
           <a:ext cx="47625" cy="12239625"/>
           <a:chOff x="5336475" y="0"/>
           <a:chExt cx="19050" cy="7560000"/>
@@ -1754,6 +1885,197 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>239058</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>336175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>361556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2637117" y="163150"/>
+          <a:ext cx="1695823" cy="773641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104589</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467838</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Captura de pantalla 2023-05-28 233845.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2502648" y="1008530"/>
+          <a:ext cx="3560661" cy="3189940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>491270</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>366059</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>225612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Captura de pantalla 2023-05-28 233858.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6213741" y="1675846"/>
+          <a:ext cx="3326200" cy="2972354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396558</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371512</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9570440" y="1441824"/>
+          <a:ext cx="3172366" cy="3497975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1954,7 +2276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5016,8 +5338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5278,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="11"/>
@@ -5287,13 +5609,13 @@
         <v>19</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -5318,7 +5640,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="11"/>
@@ -5327,7 +5649,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="24"/>
@@ -5384,7 +5706,7 @@
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
       <c r="F12" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="28" t="s">
@@ -5738,7 +6060,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="37"/>
-      <c r="H23" s="97">
+      <c r="H23" s="89">
         <v>2</v>
       </c>
       <c r="I23" s="11"/>
@@ -6936,7 +7258,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="36"/>
       <c r="H63" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
@@ -7272,7 +7594,7 @@
       </c>
       <c r="H74" s="57">
         <f>SUM(H15:H72)</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
@@ -32311,7 +32633,7 @@
   <dimension ref="B3:F1007"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -32359,14 +32681,14 @@
         <v>2</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="73"/>
       <c r="E8" s="74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="409.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -32374,14 +32696,14 @@
         <v>3</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="73"/>
       <c r="E9" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -32389,14 +32711,14 @@
         <v>4</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="78"/>
       <c r="E10" s="79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -32404,14 +32726,14 @@
         <v>5</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="80"/>
       <c r="E11" s="75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -32419,120 +32741,146 @@
         <v>6</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="82"/>
       <c r="E12" s="72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="88">
         <v>7</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="91"/>
+      <c r="E13" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89" t="s">
+      <c r="F13" s="92" t="s">
         <v>101</v>
-      </c>
-      <c r="F13" s="95" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="87">
         <v>8</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="93"/>
+      <c r="E14" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="93" t="s">
-        <v>104</v>
+      <c r="F14" s="92" t="s">
+        <v>101</v>
       </c>
-      <c r="F14" s="95"/>
     </row>
     <row r="15" spans="2:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="87">
         <v>9</v>
       </c>
-      <c r="C15" s="90" t="s">
-        <v>105</v>
+      <c r="C15" s="92" t="s">
+        <v>104</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="92" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="87">
         <v>10</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92" t="s">
-        <v>107</v>
+      <c r="F16" s="92" t="s">
+        <v>101</v>
       </c>
-      <c r="F16" s="95"/>
     </row>
     <row r="17" spans="2:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="87">
         <v>11</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92" t="s">
-        <v>109</v>
+      <c r="F17" s="92" t="s">
+        <v>101</v>
       </c>
-      <c r="F17" s="95"/>
     </row>
     <row r="18" spans="2:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="87">
         <v>12</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92" t="s">
-        <v>111</v>
+      <c r="F18" s="92" t="s">
+        <v>101</v>
       </c>
-      <c r="F18" s="95"/>
     </row>
     <row r="19" spans="2:6" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="87">
         <v>13</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92" t="s">
-        <v>113</v>
+      <c r="F19" s="92" t="s">
+        <v>101</v>
       </c>
-      <c r="F19" s="96"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="85"/>
-    </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="85"/>
+    </row>
+    <row r="20" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="87">
+        <v>14</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="82"/>
+      <c r="E20" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="84">
+        <v>15</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="82"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="82" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="84"/>
@@ -32540,6 +32888,13 @@
       <c r="D22" s="85"/>
       <c r="E22" s="86"/>
       <c r="F22" s="85"/>
+    </row>
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="85"/>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -33524,7 +33879,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -33535,7 +33890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -33633,22 +33990,1256 @@
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="21"/>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="42"/>
-    </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="96">
+        <v>1</v>
+      </c>
+      <c r="C23" s="102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="96">
+        <v>2</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>137</v>
+      </c>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="96">
+        <v>3</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="96">
+        <v>4</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="56"/>
+    </row>
+    <row r="29" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="96">
+        <v>1</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="56"/>
+    </row>
+    <row r="30" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="96">
+        <v>2</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="56"/>
+    </row>
+    <row r="31" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="96">
+        <v>3</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="56"/>
+    </row>
+    <row r="32" spans="2:4" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="96">
+        <v>4</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="96">
+        <v>1</v>
+      </c>
+      <c r="C35" s="99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="96">
+        <v>2</v>
+      </c>
+      <c r="C36" s="99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="96">
+        <v>3</v>
+      </c>
+      <c r="C37" s="99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="77" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="96">
+        <v>4</v>
+      </c>
+      <c r="C38" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="96">
+        <v>1</v>
+      </c>
+      <c r="C41" s="99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="96">
+        <v>2</v>
+      </c>
+      <c r="C42" s="99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="96">
+        <v>3</v>
+      </c>
+      <c r="C43" s="99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="96">
+        <v>4</v>
+      </c>
+      <c r="C44" s="99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="96">
+        <v>1</v>
+      </c>
+      <c r="C47" s="99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="96">
+        <v>2</v>
+      </c>
+      <c r="C48" s="99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="96">
+        <v>3</v>
+      </c>
+      <c r="C49" s="99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="96">
+        <v>4</v>
+      </c>
+      <c r="C50" s="99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I1000"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="26.54296875" customWidth="1"/>
+    <col min="10" max="26" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="18"/>
+      <c r="I5" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="18"/>
+      <c r="I6" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="18">
+        <v>2</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="63"/>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="63"/>
+    </row>
+    <row r="10" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="63"/>
+    </row>
+    <row r="11" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="63"/>
+    </row>
+    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C13" s="56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="104">
+        <v>3</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -34618,1074 +36209,11 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D22:F22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="8" width="11.453125" customWidth="1"/>
-    <col min="9" max="9" width="26.54296875" customWidth="1"/>
-    <col min="10" max="26" width="11.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="18">
-        <v>2</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="18">
-        <v>3</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="18">
-        <v>4</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C13" s="56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
 </file>